--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE01AEAF-F5D7-8242-9134-367BADC419A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE1A70F-F438-C140-9A0A-CADA24C20E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="13720" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="13720" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -526,7 +526,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -536,7 +536,8 @@
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="6" max="7" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
     <col min="10" max="10" width="29.33203125" customWidth="1"/>
@@ -579,19 +580,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>27</v>
@@ -600,10 +601,10 @@
         <v>16</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -611,19 +612,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>28</v>
@@ -632,19 +633,22 @@
         <v>16</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J3">
+    <sortCondition ref="A2:A3"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{08DFD2A3-7C80-A741-907A-3557BBD36DCB}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{F68F92BF-A89D-6F4A-9F31-9D7E9F1070F9}"/>
-    <hyperlink ref="G2" r:id="rId3" location="Article-01" xr:uid="{16502AB9-348A-954C-BEE5-C81449AFF526}"/>
-    <hyperlink ref="G3" r:id="rId4" location="Article-02" xr:uid="{4C62CE9F-5A3C-BB4A-9016-40D7938AC5EC}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{08DFD2A3-7C80-A741-907A-3557BBD36DCB}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{F68F92BF-A89D-6F4A-9F31-9D7E9F1070F9}"/>
+    <hyperlink ref="G3" r:id="rId3" location="Article-02" xr:uid="{16502AB9-348A-954C-BEE5-C81449AFF526}"/>
+    <hyperlink ref="G2" r:id="rId4" location="Article-01" xr:uid="{4C62CE9F-5A3C-BB4A-9016-40D7938AC5EC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE1A70F-F438-C140-9A0A-CADA24C20E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEBB36B-104C-4449-8774-AE50CDE303B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="13720" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10400" yWindow="10300" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>title</t>
   </si>
@@ -141,6 +141,92 @@
   </si>
   <si>
     <t>https://tcwang.github.io/AiCity2019/AiCityB-81-Adv.html#Article-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>網路相關資訊整理在：智慧採購</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>通訊網路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 
+&lt;a href="https://tcwang.github.io/SmartShopping/SST-310-BroadbandNetwork.html"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>寬頻網路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/a&gt;, 
+&lt;a href="https://tcwang.github.io/SmartShopping/SST-330-VideoAudio.html"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影音視頻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/a&gt; &lt;br&gt;
+僅供參考。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -182,6 +268,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -216,6 +309,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,13 +616,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -541,9 +637,10 @@
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
     <col min="10" max="10" width="29.33203125" customWidth="1"/>
+    <col min="11" max="11" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,8 +671,11 @@
       <c r="J1" t="s">
         <v>21</v>
       </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" ht="128">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -606,8 +706,11 @@
       <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEBB36B-104C-4449-8774-AE50CDE303B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F211FC-96D6-6247-A35F-9EF64E46CE5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="10300" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="10300" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -156,7 +156,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>網路相關資訊整理在：智慧採購</t>
+      <t>寬頻網路資訊：智慧採購</t>
     </r>
     <r>
       <rPr>
@@ -184,8 +184,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> / 
-&lt;a href="https://tcwang.github.io/SmartShopping/SST-310-BroadbandNetwork.html"&gt;</t>
+      <t xml:space="preserve"> /  &lt;a href="https://tcwang.github.io/SmartShopping/SST-310-BroadbandNetwork.html"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -204,8 +203,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/a&gt;, 
-&lt;a href="https://tcwang.github.io/SmartShopping/SST-330-VideoAudio.html"&gt;</t>
+      <t>&lt;/a&gt;, &lt;br&gt;
+電視盒資訊：&lt;a href="https://tcwang.github.io/SmartShopping/SST-330-VideoAudio.html"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -224,8 +223,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> &lt;/a&gt; &lt;br&gt;
-僅供參考。</t>
+      <t xml:space="preserve"> &lt;/a&gt; &lt;br&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,7 +673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128">
+    <row r="2" spans="1:11" ht="96">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F211FC-96D6-6247-A35F-9EF64E46CE5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29411C90-5C89-504F-8BF0-669AC69EC268}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="10300" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6040" yWindow="8340" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>title</t>
   </si>
@@ -227,6 +227,75 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>番茄村Brunch &amp; Café</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-327-9372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tomato-co.com.tw/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-949-番茄村.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越南小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-950-越南小吃-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悠揚八度音樂中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學校才藝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐廳小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937-081-121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/102501968352582/posts/opening-soon-/120037916598987/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-54-YellowPage.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-悠揚八度.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -311,6 +380,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -614,13 +684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -673,83 +743,160 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="96">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="96">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J3">
-    <sortCondition ref="A2:A3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K6">
+    <sortCondition descending="1" ref="A2:A6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{08DFD2A3-7C80-A741-907A-3557BBD36DCB}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{F68F92BF-A89D-6F4A-9F31-9D7E9F1070F9}"/>
-    <hyperlink ref="G3" r:id="rId3" location="Article-02" xr:uid="{16502AB9-348A-954C-BEE5-C81449AFF526}"/>
-    <hyperlink ref="G2" r:id="rId4" location="Article-01" xr:uid="{4C62CE9F-5A3C-BB4A-9016-40D7938AC5EC}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{08DFD2A3-7C80-A741-907A-3557BBD36DCB}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{F68F92BF-A89D-6F4A-9F31-9D7E9F1070F9}"/>
+    <hyperlink ref="G5" r:id="rId3" location="Article-02" xr:uid="{16502AB9-348A-954C-BEE5-C81449AFF526}"/>
+    <hyperlink ref="G6" r:id="rId4" location="Article-01" xr:uid="{4C62CE9F-5A3C-BB4A-9016-40D7938AC5EC}"/>
+    <hyperlink ref="G2" r:id="rId5" location="Menu-B5" xr:uid="{9EE6F9E5-31B6-5B41-815E-3EAD89B2A8AF}"/>
+    <hyperlink ref="F2" r:id="rId6" xr:uid="{6058EE7C-89DE-0D43-B2CE-576C6F238B6F}"/>
+    <hyperlink ref="G3" r:id="rId7" location="Menu-B6" xr:uid="{ED9C854B-B974-C248-8F88-25B63FC016BB}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{7DEAC8A7-1C00-B646-B29A-FE6173560B2F}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{757A065B-B9E0-8E40-A8B4-635B4205F84E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29411C90-5C89-504F-8BF0-669AC69EC268}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F510AA-4870-914C-B2E1-3EB807F3C288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6040" yWindow="8340" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>https://tcwang.github.io/AiCity2019/AiCityB-81-Adv.html#Article-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-81-Adv.html#Article-02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.tomato-co.com.tw/index.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>悠揚八度音樂中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +282,18 @@
   </si>
   <si>
     <t>fig/AiCity-918-悠揚八度.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B5/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B6/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-81-Adv.html#Article-02/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,22 +690,16 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="54.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" customWidth="1"/>
-    <col min="11" max="11" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -740,30 +734,30 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -771,19 +765,19 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -791,25 +785,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -835,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -879,7 +873,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -890,11 +884,11 @@
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{08DFD2A3-7C80-A741-907A-3557BBD36DCB}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{F68F92BF-A89D-6F4A-9F31-9D7E9F1070F9}"/>
-    <hyperlink ref="G5" r:id="rId3" location="Article-02" xr:uid="{16502AB9-348A-954C-BEE5-C81449AFF526}"/>
+    <hyperlink ref="G5" r:id="rId3" location="Article-02/" xr:uid="{16502AB9-348A-954C-BEE5-C81449AFF526}"/>
     <hyperlink ref="G6" r:id="rId4" location="Article-01" xr:uid="{4C62CE9F-5A3C-BB4A-9016-40D7938AC5EC}"/>
-    <hyperlink ref="G2" r:id="rId5" location="Menu-B5" xr:uid="{9EE6F9E5-31B6-5B41-815E-3EAD89B2A8AF}"/>
+    <hyperlink ref="G2" r:id="rId5" location="Menu-B5/" xr:uid="{9EE6F9E5-31B6-5B41-815E-3EAD89B2A8AF}"/>
     <hyperlink ref="F2" r:id="rId6" xr:uid="{6058EE7C-89DE-0D43-B2CE-576C6F238B6F}"/>
-    <hyperlink ref="G3" r:id="rId7" location="Menu-B6" xr:uid="{ED9C854B-B974-C248-8F88-25B63FC016BB}"/>
+    <hyperlink ref="G3" r:id="rId7" location="Menu-B6/" xr:uid="{ED9C854B-B974-C248-8F88-25B63FC016BB}"/>
     <hyperlink ref="F4" r:id="rId8" xr:uid="{7DEAC8A7-1C00-B646-B29A-FE6173560B2F}"/>
     <hyperlink ref="G4" r:id="rId9" xr:uid="{757A065B-B9E0-8E40-A8B4-635B4205F84E}"/>
   </hyperlinks>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F510AA-4870-914C-B2E1-3EB807F3C288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E22805-2909-7C40-8D94-62CA4BE3F8A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6040" yWindow="8340" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,15 +285,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B5/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B6/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tcwang.github.io/AiCity2019/AiCityB-81-Adv.html#Article-02/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +690,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
@@ -757,7 +757,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -777,7 +777,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="96">
+    <row r="6" spans="1:11" ht="64">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,9 +886,9 @@
     <hyperlink ref="F6" r:id="rId2" xr:uid="{F68F92BF-A89D-6F4A-9F31-9D7E9F1070F9}"/>
     <hyperlink ref="G5" r:id="rId3" location="Article-02/" xr:uid="{16502AB9-348A-954C-BEE5-C81449AFF526}"/>
     <hyperlink ref="G6" r:id="rId4" location="Article-01" xr:uid="{4C62CE9F-5A3C-BB4A-9016-40D7938AC5EC}"/>
-    <hyperlink ref="G2" r:id="rId5" location="Menu-B5/" xr:uid="{9EE6F9E5-31B6-5B41-815E-3EAD89B2A8AF}"/>
+    <hyperlink ref="G2" r:id="rId5" location="Menu-B5" xr:uid="{9EE6F9E5-31B6-5B41-815E-3EAD89B2A8AF}"/>
     <hyperlink ref="F2" r:id="rId6" xr:uid="{6058EE7C-89DE-0D43-B2CE-576C6F238B6F}"/>
-    <hyperlink ref="G3" r:id="rId7" location="Menu-B6/" xr:uid="{ED9C854B-B974-C248-8F88-25B63FC016BB}"/>
+    <hyperlink ref="G3" r:id="rId7" location="Menu-B6" xr:uid="{ED9C854B-B974-C248-8F88-25B63FC016BB}"/>
     <hyperlink ref="F4" r:id="rId8" xr:uid="{7DEAC8A7-1C00-B646-B29A-FE6173560B2F}"/>
     <hyperlink ref="G4" r:id="rId9" xr:uid="{757A065B-B9E0-8E40-A8B4-635B4205F84E}"/>
   </hyperlinks>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E22805-2909-7C40-8D94-62CA4BE3F8A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92474BEB-5DE9-C046-A876-19B3CD11A801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6040" yWindow="8340" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,11 +289,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B6</t>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,10 +687,10 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
@@ -886,9 +886,9 @@
     <hyperlink ref="F6" r:id="rId2" xr:uid="{F68F92BF-A89D-6F4A-9F31-9D7E9F1070F9}"/>
     <hyperlink ref="G5" r:id="rId3" location="Article-02/" xr:uid="{16502AB9-348A-954C-BEE5-C81449AFF526}"/>
     <hyperlink ref="G6" r:id="rId4" location="Article-01" xr:uid="{4C62CE9F-5A3C-BB4A-9016-40D7938AC5EC}"/>
-    <hyperlink ref="G2" r:id="rId5" location="Menu-B5" xr:uid="{9EE6F9E5-31B6-5B41-815E-3EAD89B2A8AF}"/>
+    <hyperlink ref="G2" r:id="rId5" location="Menu-B05" xr:uid="{9EE6F9E5-31B6-5B41-815E-3EAD89B2A8AF}"/>
     <hyperlink ref="F2" r:id="rId6" xr:uid="{6058EE7C-89DE-0D43-B2CE-576C6F238B6F}"/>
-    <hyperlink ref="G3" r:id="rId7" location="Menu-B6" xr:uid="{ED9C854B-B974-C248-8F88-25B63FC016BB}"/>
+    <hyperlink ref="G3" r:id="rId7" location="Menu-B06" xr:uid="{ED9C854B-B974-C248-8F88-25B63FC016BB}"/>
     <hyperlink ref="F4" r:id="rId8" xr:uid="{7DEAC8A7-1C00-B646-B29A-FE6173560B2F}"/>
     <hyperlink ref="G4" r:id="rId9" xr:uid="{757A065B-B9E0-8E40-A8B4-635B4205F84E}"/>
   </hyperlinks>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92474BEB-5DE9-C046-A876-19B3CD11A801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79987343-FC7A-C743-8A39-E7973EE559BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="8340" windowWidth="43680" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="660" windowWidth="48800" windowHeight="22480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>title</t>
   </si>
@@ -53,46 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Costco 好市多</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingNet 今網寬頻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>何家蓉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄭順德</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0989-009-809</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0966-539-183</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.costco.com.tw/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://top1.kingnet.net.tw/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>社區廣告看板</t>
   </si>
   <si>
@@ -100,68 +60,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fig/fig-Ad/AiCity-949-Advertisement-01.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/fig-Ad/AiCity-949-Advertisement-02.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/fig-Ad/AiCity-949-Adv-11.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/fig-Ad/AiCity-949-Adv-12.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/fig-Ad/AiCity-949-Adv-21.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/fig-Ad/AiCity-949-Adv-22.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linkweb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-81-Adv.html#Article-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>003</t>
+  </si>
+  <si>
+    <t>悠揚八度音樂中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學校才藝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937-081-121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/102501968352582/posts/opening-soon-/120037916598987/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-悠揚八度.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Dr.SungSport/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特達舒運動教室 - 長庚店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0954-075-058</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>寬頻網路資訊：智慧採購</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
+      <t>fig/AiCity-918-</t>
     </r>
     <r>
       <rPr>
@@ -171,7 +110,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>通訊網路</t>
+      <t>達特舒</t>
     </r>
     <r>
       <rPr>
@@ -180,120 +119,60 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> /  &lt;a href="https://tcwang.github.io/SmartShopping/SST-310-BroadbandNetwork.html"&gt;</t>
+      <t>.jpg</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>寬頻網路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/a&gt;, &lt;br&gt;
-電視盒資訊：&lt;a href="https://tcwang.github.io/SmartShopping/SST-330-VideoAudio.html"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影音視頻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/a&gt; &lt;br&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>番茄村Brunch &amp; Café</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-327-9372</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tomato-co.com.tw/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-949-番茄村.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越南小吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-950-越南小吃-01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悠揚八度音樂中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學校才藝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐廳小吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0937-081-121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/102501968352582/posts/opening-soon-/120037916598987/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-54-YellowPage.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-918-悠揚八度.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-81-Adv.html#Article-02/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-006" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="3"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/AiCity-954-達特舒-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/AiCity-954-達特舒-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/AiCity-954-達特舒-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-006" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-006" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-003" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/AiCity-954-悠揚八度-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/AiCity-954-悠揚八度-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-003" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-003" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -322,13 +201,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -336,11 +208,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="136"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,25 +233,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -684,25 +546,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="70.6640625" customWidth="1"/>
+    <col min="7" max="7" width="105" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -722,175 +589,75 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="372" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>28</v>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="64">
-      <c r="A6" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K6">
-    <sortCondition descending="1" ref="A2:A6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I3">
+    <sortCondition descending="1" ref="A3"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{08DFD2A3-7C80-A741-907A-3557BBD36DCB}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{F68F92BF-A89D-6F4A-9F31-9D7E9F1070F9}"/>
-    <hyperlink ref="G5" r:id="rId3" location="Article-02/" xr:uid="{16502AB9-348A-954C-BEE5-C81449AFF526}"/>
-    <hyperlink ref="G6" r:id="rId4" location="Article-01" xr:uid="{4C62CE9F-5A3C-BB4A-9016-40D7938AC5EC}"/>
-    <hyperlink ref="G2" r:id="rId5" location="Menu-B05" xr:uid="{9EE6F9E5-31B6-5B41-815E-3EAD89B2A8AF}"/>
-    <hyperlink ref="F2" r:id="rId6" xr:uid="{6058EE7C-89DE-0D43-B2CE-576C6F238B6F}"/>
-    <hyperlink ref="G3" r:id="rId7" location="Menu-B06" xr:uid="{ED9C854B-B974-C248-8F88-25B63FC016BB}"/>
-    <hyperlink ref="F4" r:id="rId8" xr:uid="{7DEAC8A7-1C00-B646-B29A-FE6173560B2F}"/>
-    <hyperlink ref="G4" r:id="rId9" xr:uid="{757A065B-B9E0-8E40-A8B4-635B4205F84E}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{7DEAC8A7-1C00-B646-B29A-FE6173560B2F}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{5B45738D-4BE2-FE41-8535-56F33CAFDE18}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79987343-FC7A-C743-8A39-E7973EE559BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E9E8E-78D9-134D-BE19-D51F0E6CA7AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="660" windowWidth="48800" windowHeight="22480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11860" yWindow="5960" windowWidth="27860" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,105 +34,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>title</t>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>telphone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>figure</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社區廣告看板</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>悠揚八度音樂中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特達舒運動教室 - 長庚店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>學校才藝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0937-081-121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/102501968352582/posts/opening-soon-/120037916598987/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-918-悠揚八度.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0954-075-058</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-918-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>達特舒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://www.facebook.com/Dr.SungSport/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特達舒運動教室 - 長庚店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0954-075-058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fig/AiCity-918-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>達特舒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.jpg</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div id="carouselExampleIndicators-006" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
@@ -152,7 +135,29 @@
          &lt;span class="sr-only"&gt;Next&lt;/span&gt;
     &lt;/a&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社區廣告看板</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>悠揚八度音樂中心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937-081-121</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-悠揚八度.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/102501968352582/posts/opening-soon-/120037916598987/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div id="carouselExampleIndicators-003" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
@@ -173,19 +178,551 @@
          &lt;span class="sr-only"&gt;Next&lt;/span&gt;
     &lt;/a&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞頓 水處理系統</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活用品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>02-2690-3868 #215 趙小姐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.a-tun.com/contact.php</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">飲水系統濾心更換
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">			&lt;ul&gt;
+				&lt;li&gt;3M CUNO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>家用生飲水系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a href="https://multimedia.3m.com/mws/media/499085O/water-at-its-finest-fm-dws-1500-spec-sheet.pdf"&gt;FM DWS 1500&lt;/a&gt;&lt;/li&gt;
+				&lt;li&gt;
+					</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>濾芯更換廠商：亞頓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水處理系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / &lt;a href="https://www.a-tun.com/contact.php"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>瀚頓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt; 
+					&lt;ul&gt;
+						&lt;li&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>電話：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">02-2690-3868 #215 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">趙小姐
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">						&lt;/li&gt;
+						&lt;li&gt;
+							</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地址：新北市汐止區中興路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2
+						&lt;/li&gt;
+						&lt;li&gt;
+							Line id: @a53110511
+						&lt;/li&gt;
+						&lt;li&gt;
+							</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>營業時間：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>週一～週五：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">09:00 - 17:00
+						&lt;/li&gt;
+						&lt;li&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>濾芯更換週期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 ~ 12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">個月
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">						&lt;/li&gt;
+						&lt;li&gt;
+							</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>濾芯到府更換價格：原價</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NT$ 3,300, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>社區優惠價</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NT$ 2,200
+						&lt;/li&gt;
+						&lt;li&gt;
+							</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>濾芯團購價（不含安裝）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1,700, 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1,600
+						&lt;/li&gt;
+						&lt;li&gt;
+							</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>安裝教學：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a href="https://www.youtube.com/watch?v=qfx2KHqWUFE"&gt;3M </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>濾水器濾心安裝教學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+						&lt;/li&gt;
+					&lt;/ul&gt;
+				&lt;/li&gt;
+			&lt;/ul&gt;	</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-3M.jpeg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -199,13 +736,6 @@
       <name val="PMingLiU"/>
       <family val="1"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -232,15 +762,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -262,7 +802,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -272,44 +812,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -336,14 +876,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -370,6 +928,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,285 +957,282 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9100A-AFFA-4546-B772-38B0535988D2}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="70.6640625" customWidth="1"/>
-    <col min="7" max="7" width="105" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="70.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="105" style="2" customWidth="1"/>
+    <col min="8" max="8" width="65" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="79.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="372" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="372">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="356">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="356" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.6">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I3">
-    <sortCondition descending="1" ref="A3"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{7DEAC8A7-1C00-B646-B29A-FE6173560B2F}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{5B45738D-4BE2-FE41-8535-56F33CAFDE18}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{11D2655C-F814-F346-8C78-BB499E609BD6}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{209CE015-E630-7346-A5DE-FFC3A92415D5}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{E2A1104F-F565-2F4E-A529-268DA5CB4C89}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E9E8E-78D9-134D-BE19-D51F0E6CA7AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C72046-12C1-254F-BB6C-506571190581}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="5960" windowWidth="27860" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="21120" yWindow="6760" windowWidth="27860" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -693,6 +693,22 @@
   <si>
     <t>fig/AiCity-918-3M.jpeg</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶三街46號1樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶三街30號1樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市汐止區中興路86號8樓之2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1098,28 +1114,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9100A-AFFA-4546-B772-38B0535988D2}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="70.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="105" style="2" customWidth="1"/>
-    <col min="8" max="8" width="65" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="79.1640625" style="2"/>
+    <col min="3" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="105" style="2" customWidth="1"/>
+    <col min="9" max="9" width="65" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="79.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,25 +1146,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="372">
+    <row r="2" spans="1:10" ht="372">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,22 +1178,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="356">
+    <row r="3" spans="1:10" ht="356">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1185,22 +1207,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.6">
+    <row r="4" spans="1:10" ht="409.6">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1211,27 +1236,30 @@
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{11D2655C-F814-F346-8C78-BB499E609BD6}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{209CE015-E630-7346-A5DE-FFC3A92415D5}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{E2A1104F-F565-2F4E-A529-268DA5CB4C89}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{11D2655C-F814-F346-8C78-BB499E609BD6}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{209CE015-E630-7346-A5DE-FFC3A92415D5}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{E2A1104F-F565-2F4E-A529-268DA5CB4C89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C72046-12C1-254F-BB6C-506571190581}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E62E39-81B2-1445-90D0-8D4B4CEFEE27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21120" yWindow="6760" windowWidth="27860" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9100A-AFFA-4546-B772-38B0535988D2}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E62E39-81B2-1445-90D0-8D4B4CEFEE27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838B0AB5-4741-5A44-939B-973096D335B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21120" yWindow="6760" windowWidth="27860" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="3620" yWindow="4960" windowWidth="27860" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -708,6 +708,10 @@
   </si>
   <si>
     <t>新北市汐止區中興路86號8樓之2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="fig/AiCity-918-3M-2.jpg" class="img-fluid" style="width:600px"&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1116,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9100A-AFFA-4546-B772-38B0535988D2}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
@@ -1247,6 +1251,9 @@
       <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>28</v>
       </c>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838B0AB5-4741-5A44-939B-973096D335B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A9E1D-75F1-FF4B-BC72-FB305B8C3C19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="4960" windowWidth="27860" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
@@ -214,6 +214,30 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>fig/AiCity-918-3M.jpeg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶三街46號1樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶三街30號1樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市汐止區中興路86號8樓之2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="fig/AiCity-918-3M-2.jpg" class="img-fluid" style="width:600px"&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">			</t>
     </r>
@@ -225,7 +249,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">飲水系統濾心更換
+      <t xml:space="preserve">飲水系統濾心更換&lt;br&gt;
 </t>
     </r>
     <r>
@@ -237,8 +261,8 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">			&lt;ul&gt;
-				&lt;li&gt;3M CUNO </t>
+      <t xml:space="preserve">	
+				3M CUNO </t>
     </r>
     <r>
       <rPr>
@@ -259,9 +283,8 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> &lt;a href="https://multimedia.3m.com/mws/media/499085O/water-at-its-finest-fm-dws-1500-spec-sheet.pdf"&gt;FM DWS 1500&lt;/a&gt;&lt;/li&gt;
-				&lt;li&gt;
-					</t>
+      <t xml:space="preserve"> &lt;a href="https://multimedia.3m.com/mws/media/499085O/water-at-its-finest-fm-dws-1500-spec-sheet.pdf"&gt;FM DWS 1500&lt;/a&gt;&lt;br&gt;
+				</t>
     </r>
     <r>
       <rPr>
@@ -324,7 +347,7 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">&lt;/a&gt; 
+      <t xml:space="preserve">&lt;/a&gt;
 					&lt;ul&gt;
 						&lt;li&gt; </t>
     </r>
@@ -685,34 +708,9 @@
       <t xml:space="preserve">&lt;/a&gt;
 						&lt;/li&gt;
 					&lt;/ul&gt;
-				&lt;/li&gt;
-			&lt;/ul&gt;	</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-918-3M.jpeg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市龜山區長慶三街46號1樓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市龜山區長慶三街30號1樓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北市汐止區中興路86號8樓之2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;img src="fig/AiCity-918-3M-2.jpg" class="img-fluid" style="width:600px"&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+	</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1120,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9100A-AFFA-4546-B772-38B0535988D2}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
@@ -1150,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1182,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1211,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1240,22 +1238,22 @@
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>16</v>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A9E1D-75F1-FF4B-BC72-FB305B8C3C19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F24444E-1687-AB4E-9DBD-2C19A3FADA07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="4960" windowWidth="27860" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="6580" yWindow="4020" windowWidth="39180" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -711,6 +711,11 @@
 	</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>線上報名：&lt;a href="https://www.beclass.com/rid=244628a604e1faa02172"&gt;110年4/1-4/10達特舒長庚店體驗課程線上報名&lt;/a&gt; &lt;br&gt;
+4/1-4/10安排免費團課, 每人可體驗1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1118,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9100A-AFFA-4546-B772-38B0535988D2}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
@@ -1194,6 +1199,9 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J2" s="5" t="s">
         <v>16</v>
       </c>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F24444E-1687-AB4E-9DBD-2C19A3FADA07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83933252-B16A-F343-853F-19293AC16098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="4020" windowWidth="39180" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="13560" yWindow="3000" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -715,6 +715,41 @@
   <si>
     <t>線上報名：&lt;a href="https://www.beclass.com/rid=244628a604e1faa02172"&gt;110年4/1-4/10達特舒長庚店體驗課程線上報名&lt;/a&gt; &lt;br&gt;
 4/1-4/10安排免費團課, 每人可體驗1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021桃園住宿補助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政宣導</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="fig/AiCity-918-住宿補助.jpg" class="img-fluid" style="width:600px"&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lovetystay.tycg.gov.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-住宿補助logo.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>補助要點：
+&lt;ul&gt;
+   &lt;li&gt;日期: 從 2021/3/22 ~ 4/30，限周日至周五（4/2、4/4除外）&lt;/li&gt;
+   &lt;li&gt;額度: 每房補助1000元，每人可補助2次。無需連續入住，不限同一旅宿&lt;/li&gt;
+   &lt;li&gt;注意:限額補助2萬間房，用完為止。&lt;/li&gt;
+   &lt;li&gt; 網址：&lt;a href="https://lovetystay.tycg.gov.tw/"&gt;就是愛桃園&lt;/a&gt;
+   &lt;/li&gt;
+&lt;/ul&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,6 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1121,10 +1157,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9100A-AFFA-4546-B772-38B0535988D2}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
@@ -1174,105 +1213,132 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="372">
+    <row r="2" spans="1:10" ht="144">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="356">
+    <row r="3" spans="1:10" ht="372">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.6">
+    <row r="4" spans="1:10" ht="356">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="409.6">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{11D2655C-F814-F346-8C78-BB499E609BD6}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{209CE015-E630-7346-A5DE-FFC3A92415D5}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{E2A1104F-F565-2F4E-A529-268DA5CB4C89}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{11D2655C-F814-F346-8C78-BB499E609BD6}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{209CE015-E630-7346-A5DE-FFC3A92415D5}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{E2A1104F-F565-2F4E-A529-268DA5CB4C89}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{B9714976-9D70-C645-AA1E-85F786630749}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83933252-B16A-F343-853F-19293AC16098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9B3486-785E-1143-98B2-DB50A4C9AD88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="3000" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="6700" yWindow="9820" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -747,7 +747,9 @@
    &lt;li&gt;日期: 從 2021/3/22 ~ 4/30，限周日至周五（4/2、4/4除外）&lt;/li&gt;
    &lt;li&gt;額度: 每房補助1000元，每人可補助2次。無需連續入住，不限同一旅宿&lt;/li&gt;
    &lt;li&gt;注意:限額補助2萬間房，用完為止。&lt;/li&gt;
-   &lt;li&gt; 網址：&lt;a href="https://lovetystay.tycg.gov.tw/"&gt;就是愛桃園&lt;/a&gt;
+   &lt;li&gt; 申請網址：&lt;a href="https://lovetystay.tycg.gov.tw/"&gt;就是愛桃園&lt;/a&gt;
+   &lt;/li&gt;
+   &lt;li&gt;雄獅旅遊 : &lt;a href="https://event.liontravel.com/zh-tw/campaign/subsidy/taoyuan"&gt;桃園魅力金三角旅遊計畫&lt;/a&gt;
    &lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1213,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="144">
+    <row r="2" spans="1:10" ht="192">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9B3486-785E-1143-98B2-DB50A4C9AD88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA4092-AA4E-5240-8806-CB36B527408E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="9820" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="3500" yWindow="11100" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -752,6 +752,34 @@
    &lt;li&gt;雄獅旅遊 : &lt;a href="https://event.liontravel.com/zh-tw/campaign/subsidy/taoyuan"&gt;桃園魅力金三角旅遊計畫&lt;/a&gt;
    &lt;/li&gt;
 &lt;/ul&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉妹鍋燒意麵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐廳小吃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶三街58號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.liu-mei.com.tw/taste.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;奇幻莊園社區餐廳  即將開幕&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-918-劉妹鍋燒意麵.jpeg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,6 +872,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1159,13 +1188,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9100A-AFFA-4546-B772-38B0535988D2}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
@@ -1215,132 +1244,160 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="192">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="372">
+    <row r="3" spans="1:10" ht="192">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="356">
+    <row r="4" spans="1:10" ht="372">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.6">
+    <row r="5" spans="1:10" ht="356">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="409.6">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{11D2655C-F814-F346-8C78-BB499E609BD6}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{209CE015-E630-7346-A5DE-FFC3A92415D5}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{E2A1104F-F565-2F4E-A529-268DA5CB4C89}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{B9714976-9D70-C645-AA1E-85F786630749}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{11D2655C-F814-F346-8C78-BB499E609BD6}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{209CE015-E630-7346-A5DE-FFC3A92415D5}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{E2A1104F-F565-2F4E-A529-268DA5CB4C89}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{B9714976-9D70-C645-AA1E-85F786630749}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{8DBE2D3F-70A4-3944-B1F2-AC7C6C4F1186}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA4092-AA4E-5240-8806-CB36B527408E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B1625B-C3FF-C74B-8191-5AB71CC257DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="11100" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="26020" yWindow="10460" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -775,11 +775,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;奇幻莊園社區餐廳  即將開幕&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/AiCity-918-劉妹鍋燒意麵.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="fig/AiCity-954-劉妹.jpg" class="img-fluid" style="width:600px"&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;奇幻莊園社區餐廳  5/10日 星期一開幕 &lt;br&gt;
+&lt;ul&gt;
+   &lt;li&gt;地址: 長慶三街58號1樓&lt;/li&gt;
+   &lt;li&gt;電話: 03-327-5892&lt;/li&gt;
+   &lt;li&gt;營業時間: 10:00 - 20:00
+   &lt;li&gt;開幕: 全品項一律折10元，原味鍋燒 特價50元&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +884,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1194,7 +1208,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
@@ -1244,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="144">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1258,14 +1272,16 @@
         <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
-        <v>48</v>
+      <c r="H2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>16</v>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B1625B-C3FF-C74B-8191-5AB71CC257DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9172AE7-ABAC-7148-AE11-B11BD31B3CA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26020" yWindow="10460" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="9200" yWindow="5340" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9172AE7-ABAC-7148-AE11-B11BD31B3CA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DEC16A-38E9-9943-A7C2-B657DC229EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="5340" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="4920" yWindow="13020" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -783,12 +783,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>03-327-5892</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;p&gt;奇幻莊園社區餐廳  5/10日 星期一開幕 &lt;br&gt;
 &lt;ul&gt;
    &lt;li&gt;地址: 長慶三街58號1樓&lt;/li&gt;
    &lt;li&gt;電話: 03-327-5892&lt;/li&gt;
    &lt;li&gt;營業時間: 10:00 - 20:00
    &lt;li&gt;開幕: 全品項一律折10元，原味鍋燒 特價50元&lt;/li&gt;
+   &lt;li&gt; &lt;a href="https://tcwang.github.io/AiCity2019/AiCityB-71-Commerce.html#Menu-B08"&gt;社區商店-劉妹鍋燒意麵&lt;/a&gt;
+   &lt;/li&gt;
 &lt;/ul&gt;
 &lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1258,7 +1264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="144">
+    <row r="2" spans="1:10" ht="192">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1271,6 +1277,9 @@
       <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>16</v>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DEC16A-38E9-9943-A7C2-B657DC229EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA1FE4E-443B-7341-9FBA-FFF1987CC409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="13020" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="-440" yWindow="12220" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -797,6 +797,42 @@
    &lt;/li&gt;
 &lt;/ul&gt;
 &lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小六かき氷日式刨冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區文德二路9號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt; 小六かき氷手作り幸せの味 
+日式刨冰 5月1日新開幕 &lt;br&gt;
+&lt;ul&gt;
+   &lt;li&gt;地址: 龜山區文德二路9號&lt;/li&gt;
+   &lt;li&gt;電話: &lt;/li&gt;
+   &lt;li&gt;營業時間: 14:00-20:00
+   &lt;li&gt;開幕優惠: &lt;br&gt;
+第一重 全產品九折: 活動期間: 05/01(六)-05/09(日) &lt;br&gt;
+第二重 我愛媽媽大放送: 活動期間: 05/11(二)-05/16(日)&lt;br&gt;
+第三重 歡樂扭蛋機活動期間: 05/01(六)-05/09(日)&lt;br&gt;
+   &lt;/li&gt;
+&lt;/ul&gt;
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="fig/fig-Ad/AiCity-949-Adv-31.jpg", class="img-fluid", style="width:600px"&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/fig-Ad/AiCity-949-Adv-32.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1208,13 +1244,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9100A-AFFA-4546-B772-38B0535988D2}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
@@ -1264,33 +1300,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="192">
+    <row r="2" spans="1:10" ht="224">
       <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>16</v>
@@ -1298,131 +1328,163 @@
     </row>
     <row r="3" spans="1:10" ht="192">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="372">
+    <row r="4" spans="1:10" ht="192">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="356">
+    <row r="5" spans="1:10" ht="372">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="409.6">
+    <row r="6" spans="1:10" ht="356">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="409.6">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{11D2655C-F814-F346-8C78-BB499E609BD6}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{209CE015-E630-7346-A5DE-FFC3A92415D5}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{E2A1104F-F565-2F4E-A529-268DA5CB4C89}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{B9714976-9D70-C645-AA1E-85F786630749}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{8DBE2D3F-70A4-3944-B1F2-AC7C6C4F1186}"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{11D2655C-F814-F346-8C78-BB499E609BD6}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{209CE015-E630-7346-A5DE-FFC3A92415D5}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{E2A1104F-F565-2F4E-A529-268DA5CB4C89}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{B9714976-9D70-C645-AA1E-85F786630749}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{8DBE2D3F-70A4-3944-B1F2-AC7C6C4F1186}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA1FE4E-443B-7341-9FBA-FFF1987CC409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919957A8-4628-1B4A-BDF4-34EC2C32A5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-440" yWindow="12220" windowWidth="43320" windowHeight="16820" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
+    <workbookView xWindow="1740" yWindow="1340" windowWidth="43320" windowHeight="23900" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -787,6 +787,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小六かき氷日式刨冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區文德二路9號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/fig-Ad/AiCity-949-Adv-32.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;p&gt;奇幻莊園社區餐廳  5/10日 星期一開幕 &lt;br&gt;
 &lt;ul&gt;
    &lt;li&gt;地址: 長慶三街58號1樓&lt;/li&gt;
@@ -800,15 +816,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小六かき氷日式刨冰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龜山區文德二路9號</t>
+    <t>&lt;p&gt;&lt;img src="fig/fig-Ad/AiCity-949-Adv-33.jpg", class="img-fluid", style="width:600px"&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -818,21 +826,12 @@
    &lt;li&gt;地址: 龜山區文德二路9號&lt;/li&gt;
    &lt;li&gt;電話: &lt;/li&gt;
    &lt;li&gt;營業時間: 14:00-20:00
-   &lt;li&gt;開幕優惠: &lt;br&gt;
-第一重 全產品九折: 活動期間: 05/01(六)-05/09(日) &lt;br&gt;
-第二重 我愛媽媽大放送: 活動期間: 05/11(二)-05/16(日)&lt;br&gt;
-第三重 歡樂扭蛋機活動期間: 05/01(六)-05/09(日)&lt;br&gt;
-   &lt;/li&gt;
 &lt;/ul&gt;
+&lt;img src="fig/fig-Ad/AiCity-949-Adv-34.jpg" class="img-fluid" style="width:400px"&gt;
+&lt;img src="fig/fig-Ad/AiCity-949-Adv-35.jpg" class="img-fluid" style="width:400px"&gt;&lt;br&gt;
+&lt;img src="fig/fig-Ad/AiCity-949-Adv-36.jpg" class="img-fluid" style="width:200px"&gt;
+&lt;img src="fig/fig-Ad/AiCity-949-Adv-37.jpg" class="img-fluid" style="width:200px"&gt;
 &lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;img src="fig/fig-Ad/AiCity-949-Adv-31.jpg", class="img-fluid", style="width:600px"&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/fig-Ad/AiCity-949-Adv-32.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1250,7 +1249,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="79.1640625" defaultRowHeight="15"/>
@@ -1300,33 +1299,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="224">
+    <row r="2" spans="1:10" ht="288">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="192">
+    <row r="3" spans="1:10" ht="208">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>49</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>16</v>

--- a/db/AiCity-86-Adv1.xlsx
+++ b/db/AiCity-86-Adv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919957A8-4628-1B4A-BDF4-34EC2C32A5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580926B7-A67F-DB41-B9A9-A9DCA0EC0F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1340" windowWidth="43320" windowHeight="23900" xr2:uid="{86E1A614-D1DC-424E-A51B-464E57AA689A}"/>
   </bookViews>
@@ -824,7 +824,7 @@
 日式刨冰 5月1日新開幕 &lt;br&gt;
 &lt;ul&gt;
    &lt;li&gt;地址: 龜山區文德二路9號&lt;/li&gt;
-   &lt;li&gt;電話: &lt;/li&gt;
+   &lt;li&gt;電話: 03-328-6157, 0920-174-047&lt;/li&gt;
    &lt;li&gt;營業時間: 14:00-20:00
 &lt;/ul&gt;
 &lt;img src="fig/fig-Ad/AiCity-949-Adv-34.jpg" class="img-fluid" style="width:400px"&gt;
